--- a/src/files/EVA_Submission_template.V1.0.6_mockup.xlsx
+++ b/src/files/EVA_Submission_template.V1.0.6_mockup.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pagarcia/appl/js/eva-web/src/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/setup/Desktop/EVA/Templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32240" yWindow="1400" windowWidth="30880" windowHeight="18700" tabRatio="993"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14720" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="PLEASE READ FIRST" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Files" sheetId="10" r:id="rId10"/>
     <sheet name="CVs" sheetId="11" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="577">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="578">
   <si>
     <t>PLEASE READ FIRST</t>
   </si>
@@ -1610,6 +1610,7 @@
         <sz val="14"/>
         <color rgb="FF0000FF"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>eva-helpdesk@ebi.ac.uk</t>
@@ -1634,6 +1635,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>BOLD</t>
@@ -1643,6 +1645,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> is </t>
@@ -1653,6 +1656,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>REQUIRED</t>
@@ -1662,6 +1666,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">. </t>
@@ -1672,6 +1677,7 @@
         <sz val="14"/>
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>GREEN</t>
@@ -1681,6 +1687,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> indicates</t>
@@ -1690,6 +1697,7 @@
         <sz val="14"/>
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -1700,6 +1708,7 @@
         <sz val="14"/>
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>EITHER</t>
@@ -1709,6 +1718,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>/</t>
@@ -1719,6 +1729,7 @@
         <sz val="14"/>
         <color rgb="FF008000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t>OR</t>
@@ -1728,6 +1739,7 @@
         <sz val="14"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> requirement.</t>
@@ -1737,12 +1749,27 @@
     <t>population</t>
   </si>
   <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>V1.6 November 2017</t>
+  </si>
+  <si>
+    <t>Sample ID</t>
+  </si>
+  <si>
+    <t>Sample ID used in the VCF file</t>
+  </si>
+  <si>
+    <t>EVA</t>
+  </si>
+  <si>
+    <t>Gary</t>
+  </si>
+  <si>
     <t>Saunders</t>
   </si>
   <si>
-    <t>Gary</t>
-  </si>
-  <si>
     <t>+44(0)1223504335</t>
   </si>
   <si>
@@ -1803,6 +1830,9 @@
     <t>Human</t>
   </si>
   <si>
+    <t>Brazilian</t>
+  </si>
+  <si>
     <t>Fibroblast</t>
   </si>
   <si>
@@ -1827,9 +1857,6 @@
     <t>Blood cell</t>
   </si>
   <si>
-    <t>Brazilian</t>
-  </si>
-  <si>
     <t>EVA_EXAMPLE_1</t>
   </si>
   <si>
@@ -1876,18 +1903,6 @@
   </si>
   <si>
     <t>34mm3m235ml3785l436n32n67nf4nv</t>
-  </si>
-  <si>
-    <t>Center</t>
-  </si>
-  <si>
-    <t>V1.6 November 2017</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
-    <t>Sample ID used in the VCF file</t>
   </si>
 </sst>
 </file>
@@ -1995,7 +2010,36 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="20"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2003,59 +2047,31 @@
     </font>
     <font>
       <b/>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -2074,12 +2090,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2312,17 +2336,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2412,102 +2440,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2516,33 +2542,38 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="11"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="12">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2950,7 +2981,7 @@
   </sheetPr>
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -2962,8 +2993,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
+      <c r="A1" s="75"/>
+      <c r="B1" s="75"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -2972,10 +3003,10 @@
       <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="80"/>
+      <c r="B2" s="76"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
       <c r="E2" s="51"/>
@@ -2984,8 +3015,8 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
-      <c r="B3" s="81"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="52"/>
       <c r="D3" s="52"/>
       <c r="E3" s="52"/>
@@ -2994,10 +3025,10 @@
       <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="71" t="s">
         <v>519</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="53"/>
       <c r="D4" s="53"/>
       <c r="E4" s="53"/>
@@ -3006,8 +3037,8 @@
       <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="70"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -3028,10 +3059,10 @@
       <c r="H6" s="53"/>
     </row>
     <row r="7" spans="1:8" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
+      <c r="A7" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="78"/>
+      <c r="B7" s="74"/>
       <c r="C7" s="54"/>
       <c r="D7" s="54"/>
       <c r="E7" s="54"/>
@@ -3040,8 +3071,8 @@
       <c r="H7" s="54"/>
     </row>
     <row r="8" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="86"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -3050,10 +3081,10 @@
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A9" s="82" t="s">
+      <c r="A9" s="71" t="s">
         <v>520</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
@@ -3062,8 +3093,8 @@
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -3072,10 +3103,10 @@
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" s="29" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="72" t="s">
         <v>521</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="72"/>
     </row>
     <row r="12" spans="1:8" s="29" customFormat="1" ht="19" x14ac:dyDescent="0.2">
       <c r="A12" s="55" t="s">
@@ -3128,32 +3159,32 @@
     </row>
     <row r="18" spans="1:2" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="19" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="88"/>
+      <c r="B19" s="73"/>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="67" t="s">
         <v>524</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="67"/>
     </row>
     <row r="21" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="84" t="s">
+      <c r="A21" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="84"/>
+      <c r="B21" s="67"/>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="85" t="s">
+      <c r="A22" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="85"/>
+      <c r="B22" s="68"/>
     </row>
     <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="63" t="s">
-        <v>574</v>
+        <v>527</v>
       </c>
       <c r="B23" s="63"/>
     </row>
@@ -3216,6 +3247,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A8:B8"/>
@@ -3224,12 +3261,6 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3240,7 +3271,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3270,13 +3301,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="C2" t="s">
         <v>218</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3284,13 +3315,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="C3" t="s">
         <v>236</v>
       </c>
       <c r="D3" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3298,13 +3329,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="C4" t="s">
         <v>218</v>
       </c>
       <c r="D4" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3312,13 +3343,13 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="C5" t="s">
         <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +4973,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4957,7 +4988,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -4972,8 +5003,8 @@
       <c r="E1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>21</v>
+      <c r="F1" s="20" t="s">
+        <v>526</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>22</v>
@@ -4981,25 +5012,25 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s">
-        <v>527</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>528</v>
-      </c>
-      <c r="D2" s="69" t="s">
-        <v>529</v>
+        <v>531</v>
+      </c>
+      <c r="C2" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" s="88" t="s">
+        <v>534</v>
       </c>
       <c r="E2" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="F2" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="G2" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -5019,7 +5050,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5062,7 +5093,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>31</v>
@@ -5167,8 +5198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5183,7 +5214,7 @@
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="40.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="64.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="6" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="6.6640625" bestFit="1" customWidth="1"/>
@@ -5200,7 +5231,7 @@
         <v>29</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>573</v>
+        <v>526</v>
       </c>
       <c r="E1" s="9" t="s">
         <v>32</v>
@@ -5237,39 +5268,39 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="70" t="s">
-        <v>533</v>
+      <c r="A2" s="89" t="s">
+        <v>538</v>
       </c>
       <c r="B2" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="D2" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="E2" s="12">
         <v>9606</v>
       </c>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70" t="s">
-        <v>537</v>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89" t="s">
+        <v>542</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="70" t="s">
-        <v>538</v>
-      </c>
-      <c r="K2" s="71">
-        <v>55071</v>
-      </c>
-      <c r="L2" s="70" t="s">
-        <v>539</v>
-      </c>
-      <c r="M2" s="70"/>
-      <c r="O2" s="70" t="s">
-        <v>536</v>
+      <c r="J2" s="89" t="s">
+        <v>543</v>
+      </c>
+      <c r="K2" s="90">
+        <v>43748</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>544</v>
+      </c>
+      <c r="M2" s="89"/>
+      <c r="O2" s="89" t="s">
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -5286,7 +5317,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5327,10 +5358,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>575</v>
+        <v>528</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>576</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -6144,8 +6175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6200,12 +6231,12 @@
   <sheetData>
     <row r="1" spans="1:50" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="50"/>
-      <c r="B1" s="93" t="s">
+      <c r="B1" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="98"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="91"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="85"/>
       <c r="F1" s="30" t="s">
         <v>152</v>
       </c>
@@ -6252,74 +6283,74 @@
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="35"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="96"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="89" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="92" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="86" t="s">
         <v>74</v>
       </c>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92" t="s">
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="92"/>
-      <c r="R2" s="89" t="s">
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="78" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="89"/>
-      <c r="T2" s="89"/>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="89" t="s">
+      <c r="S2" s="78"/>
+      <c r="T2" s="78"/>
+      <c r="U2" s="78"/>
+      <c r="V2" s="78"/>
+      <c r="W2" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="X2" s="89"/>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89" t="s">
+      <c r="X2" s="78"/>
+      <c r="Y2" s="78"/>
+      <c r="Z2" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="AA2" s="89"/>
-      <c r="AB2" s="89"/>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="89"/>
-      <c r="AF2" s="89"/>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="89"/>
-      <c r="AJ2" s="89" t="s">
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="78"/>
+      <c r="AC2" s="78"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="78"/>
+      <c r="AG2" s="78"/>
+      <c r="AH2" s="78"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="78" t="s">
         <v>125</v>
       </c>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="89"/>
-      <c r="AN2" s="89"/>
-      <c r="AO2" s="89"/>
-      <c r="AP2" s="89"/>
-      <c r="AQ2" s="89"/>
-      <c r="AR2" s="89"/>
-      <c r="AS2" s="89"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="78"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="78"/>
+      <c r="AO2" s="78"/>
+      <c r="AP2" s="78"/>
+      <c r="AQ2" s="78"/>
+      <c r="AR2" s="78"/>
+      <c r="AS2" s="78"/>
     </row>
     <row r="3" spans="1:50" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="87" t="s">
+        <v>528</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="97" t="s">
-        <v>575</v>
       </c>
       <c r="D3" s="38" t="s">
         <v>60</v>
@@ -6357,10 +6388,10 @@
       <c r="O3" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="66" t="s">
+      <c r="P3" s="65" t="s">
         <v>84</v>
       </c>
-      <c r="Q3" s="67" t="s">
+      <c r="Q3" s="66" t="s">
         <v>525</v>
       </c>
       <c r="R3" s="44" t="s">
@@ -6455,23 +6486,23 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C4">
+      <c r="B4">
         <v>2417918</v>
       </c>
+      <c r="C4" t="s">
+        <v>545</v>
+      </c>
       <c r="D4" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
@@ -6479,8 +6510,8 @@
       <c r="S4" s="12"/>
       <c r="T4" s="12"/>
       <c r="U4" s="12"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="91"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
@@ -6513,136 +6544,142 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="74" t="s">
-        <v>542</v>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="93" t="s">
+        <v>547</v>
       </c>
       <c r="G5" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="H5" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="K5" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="L5">
         <v>9606</v>
       </c>
       <c r="M5" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="N5" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="P5" t="s">
         <v>215</v>
       </c>
       <c r="Q5" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="R5" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="Z5" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA5" s="75">
+        <v>555</v>
+      </c>
+      <c r="AA5" s="94">
         <v>41640</v>
       </c>
       <c r="AB5" s="12" t="s">
         <v>276</v>
       </c>
       <c r="AQ5" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="F6" s="76" t="s">
-        <v>545</v>
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>550</v>
       </c>
       <c r="G6" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="H6" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="J6" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="L6">
         <v>9606</v>
       </c>
       <c r="M6" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="N6" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="P6" t="s">
         <v>215</v>
       </c>
       <c r="Q6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="R6" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="Z6" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA6" s="75">
+        <v>555</v>
+      </c>
+      <c r="AA6" s="94">
         <v>40909</v>
       </c>
       <c r="AB6" s="12" t="s">
         <v>276</v>
       </c>
       <c r="AQ6" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="F7" s="76" t="s">
-        <v>552</v>
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="95" t="s">
+        <v>558</v>
       </c>
       <c r="G7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="H7" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="L7">
         <v>9606</v>
       </c>
       <c r="M7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
       <c r="N7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="P7" t="s">
         <v>215</v>
       </c>
       <c r="Q7" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="R7" t="s">
+        <v>561</v>
+      </c>
+      <c r="Z7" t="s">
         <v>555</v>
       </c>
-      <c r="Z7" t="s">
-        <v>549</v>
-      </c>
-      <c r="AA7" s="75">
+      <c r="AA7" s="94">
         <v>40179</v>
       </c>
       <c r="AB7" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="AT7" s="65" t="s">
+      <c r="AT7" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="AU7" s="77" t="s">
+      <c r="AU7" s="97" t="s">
         <v>150</v>
       </c>
     </row>
@@ -6957,8 +6994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7036,36 +7073,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="C2" t="s">
-        <v>558</v>
-      </c>
-      <c r="D2" s="70" t="s">
-        <v>533</v>
+        <v>563</v>
+      </c>
+      <c r="D2" s="89" t="s">
+        <v>538</v>
       </c>
       <c r="E2" t="s">
         <v>217</v>
       </c>
       <c r="F2" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G2" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="H2" t="s">
         <v>183</v>
       </c>
       <c r="I2" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="J2" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="M2" t="s">
-        <v>536</v>
-      </c>
-      <c r="N2" s="75">
+        <v>541</v>
+      </c>
+      <c r="N2" s="94">
         <v>42278</v>
       </c>
     </row>
@@ -7074,36 +7111,36 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C3" t="s">
-        <v>564</v>
-      </c>
-      <c r="D3" s="70" t="s">
-        <v>533</v>
+        <v>569</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>538</v>
       </c>
       <c r="E3" t="s">
         <v>217</v>
       </c>
       <c r="F3" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="G3" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="H3" t="s">
         <v>183</v>
       </c>
       <c r="I3" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="J3" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="M3" t="s">
-        <v>536</v>
-      </c>
-      <c r="N3" s="75">
+        <v>541</v>
+      </c>
+      <c r="N3" s="94">
         <v>42278</v>
       </c>
     </row>
